--- a/Code/Results/Cases/Case_2_176/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_176/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.40419512247234</v>
+        <v>14.15967521690695</v>
       </c>
       <c r="C2">
-        <v>8.563188490265567</v>
+        <v>6.498337351986359</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.93683577308918</v>
+        <v>10.50155289186741</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>2.122232779064121</v>
+        <v>3.709888699607193</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.31982366736453</v>
+        <v>13.61617721057028</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.23238914260202</v>
+        <v>15.94939587996503</v>
       </c>
       <c r="N2">
-        <v>16.74246503187922</v>
+        <v>22.88384567116072</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.4842642742693</v>
+        <v>13.94201437529212</v>
       </c>
       <c r="C3">
-        <v>7.940994555206917</v>
+        <v>6.328519332001004</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.99676963133918</v>
+        <v>10.27982848283818</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>2.131606787596906</v>
+        <v>3.713070515920299</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.59130893643874</v>
+        <v>13.4754110540914</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.34478799249868</v>
+        <v>15.80660041038779</v>
       </c>
       <c r="N3">
-        <v>16.80355211565268</v>
+        <v>22.90305095219939</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.90225872691214</v>
+        <v>13.81093556697714</v>
       </c>
       <c r="C4">
-        <v>7.540592917402657</v>
+        <v>6.22412746346804</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.391514033331</v>
+        <v>10.14483235605414</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>2.137490712348479</v>
+        <v>3.715123786374591</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.13394020581671</v>
+        <v>13.39207869316383</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.83885921675228</v>
+        <v>15.72277006638242</v>
       </c>
       <c r="N4">
-        <v>16.84678013315525</v>
+        <v>22.91655504757985</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.66094824640892</v>
+        <v>13.75823630635322</v>
       </c>
       <c r="C5">
-        <v>7.372731868027517</v>
+        <v>6.181627689541162</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.16787797893038</v>
+        <v>10.09019219513919</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>2.139922827963106</v>
+        <v>3.715985655712127</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.94520748609557</v>
+        <v>13.35893549620641</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.63053443617682</v>
+        <v>15.68960882951189</v>
       </c>
       <c r="N5">
-        <v>16.86576577112959</v>
+        <v>22.92248780305093</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.62063517689466</v>
+        <v>13.74953096064153</v>
       </c>
       <c r="C6">
-        <v>7.344573131561829</v>
+        <v>6.174575239554905</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.13149019740163</v>
+        <v>10.08114417401878</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>2.140328813749816</v>
+        <v>3.716130289915296</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.91373264074057</v>
+        <v>13.35348236678546</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.59581894086174</v>
+        <v>15.68416377144242</v>
       </c>
       <c r="N6">
-        <v>16.86899915721018</v>
+        <v>22.92349886435011</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.89902080966311</v>
+        <v>13.81022185243385</v>
       </c>
       <c r="C7">
-        <v>7.538348183685652</v>
+        <v>6.223554035067251</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.38812005863428</v>
+        <v>10.1440938421663</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>2.137523370861603</v>
+        <v>3.715135307911995</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.13140414206667</v>
+        <v>13.39162836430854</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.83605809954683</v>
+        <v>15.72231875008258</v>
       </c>
       <c r="N7">
-        <v>16.84703072017814</v>
+        <v>22.91663331995008</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.09065468634697</v>
+        <v>14.08413628387144</v>
       </c>
       <c r="C8">
-        <v>8.352421905601789</v>
+        <v>6.439851777999389</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.61844322946997</v>
+        <v>10.42491526240716</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>2.125439647104443</v>
+        <v>3.710965170027301</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.07081194004715</v>
+        <v>13.56702018831278</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.87671761502248</v>
+        <v>15.8993820794473</v>
       </c>
       <c r="N8">
-        <v>16.7622976227495</v>
+        <v>22.8901118753756</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.35147101154017</v>
+        <v>14.63846930566908</v>
       </c>
       <c r="C9">
-        <v>9.806825910939313</v>
+        <v>6.860034793033652</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>14.81478626987385</v>
+        <v>10.98103781686464</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>2.102656155483781</v>
+        <v>3.703573701049371</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.06548562287696</v>
+        <v>13.93387793436265</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.38343992195266</v>
+        <v>16.27557697709206</v>
       </c>
       <c r="N9">
-        <v>16.64491627927817</v>
+        <v>22.85172196024397</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.05631013284364</v>
+        <v>15.05196208423076</v>
       </c>
       <c r="C10">
-        <v>10.79473790947549</v>
+        <v>7.162549703468432</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>16.30609969113883</v>
+        <v>11.38820845466112</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.086311439666269</v>
+        <v>3.698616423061007</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.55596262537644</v>
+        <v>14.21505023127812</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.0866156170591</v>
+        <v>16.56744230011838</v>
       </c>
       <c r="N10">
-        <v>16.59364236091194</v>
+        <v>22.83186779692783</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.80263009197074</v>
+        <v>15.2405347447559</v>
       </c>
       <c r="C11">
-        <v>11.22816493567704</v>
+        <v>7.298109584011277</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>16.96034800763626</v>
+        <v>11.57219414604334</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.078920347458546</v>
+        <v>3.696462698651155</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>17.20774039594107</v>
+        <v>14.34497841163626</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.83231790454566</v>
+        <v>16.70308744717518</v>
       </c>
       <c r="N11">
-        <v>16.57923445483959</v>
+        <v>22.82465918318768</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.08122792154137</v>
+        <v>15.31193838845564</v>
       </c>
       <c r="C12">
-        <v>11.39013729761841</v>
+        <v>7.349093141410846</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>17.20484315273654</v>
+        <v>11.64161350742968</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.076123996708146</v>
+        <v>3.695661616846899</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>17.45096598163223</v>
+        <v>14.39442605822699</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.11074692981488</v>
+        <v>16.75482350799104</v>
       </c>
       <c r="N12">
-        <v>16.57518683837597</v>
+        <v>22.82219242034726</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.02140234367776</v>
+        <v>15.29656167964724</v>
       </c>
       <c r="C13">
-        <v>11.3553471629621</v>
+        <v>7.338129306770417</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>17.15232772829397</v>
+        <v>11.62667514648547</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.076726196480476</v>
+        <v>3.695833501259355</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>17.39873941913664</v>
+        <v>14.38376635239728</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.05095410551852</v>
+        <v>16.74366544815967</v>
       </c>
       <c r="N13">
-        <v>16.57599376340834</v>
+        <v>22.82271197281861</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.82562986518485</v>
+        <v>15.24640966858007</v>
       </c>
       <c r="C14">
-        <v>11.2415328631548</v>
+        <v>7.302311342894084</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>16.98052664878691</v>
+        <v>11.57791077796253</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.078690263795266</v>
+        <v>3.696396503341591</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>17.22782149250295</v>
+        <v>14.34904180765765</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.85530223138851</v>
+        <v>16.70733663333365</v>
       </c>
       <c r="N14">
-        <v>16.57887245523139</v>
+        <v>22.82445096595595</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.70519632010118</v>
+        <v>15.2156873787866</v>
       </c>
       <c r="C15">
-        <v>11.17154187219586</v>
+        <v>7.28032468289551</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>16.87487663450756</v>
+        <v>11.54800625133329</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.079893514070367</v>
+        <v>3.69674324234542</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>17.12266786226764</v>
+        <v>14.32780283883329</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.73495235444421</v>
+        <v>16.68513110785387</v>
       </c>
       <c r="N15">
-        <v>16.58082313621331</v>
+        <v>22.82555042146799</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.00696355972981</v>
+        <v>15.03964166375193</v>
       </c>
       <c r="C16">
-        <v>10.76610254683769</v>
+        <v>7.153644426833304</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>16.26287510308093</v>
+        <v>11.37615321944436</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.086795034872979</v>
+        <v>3.698759206108328</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16.51285467906336</v>
+        <v>14.20659603300862</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.03731609675525</v>
+        <v>16.55863173135874</v>
       </c>
       <c r="N16">
-        <v>16.59477383716913</v>
+        <v>22.83237565338685</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.5712595170051</v>
+        <v>14.93171197342043</v>
       </c>
       <c r="C17">
-        <v>10.51338102125969</v>
+        <v>7.075363546695083</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>15.88139310632211</v>
+        <v>11.27035582579481</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>20.20408069617459</v>
       </c>
       <c r="G17">
-        <v>2.091037611599988</v>
+        <v>3.700021833131864</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>16.13215744436956</v>
+        <v>14.13272601809513</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.60204621205789</v>
+        <v>16.48173408526431</v>
       </c>
       <c r="N17">
-        <v>16.6057012635603</v>
+        <v>22.83703025051509</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.31789118850341</v>
+        <v>14.86968238892244</v>
       </c>
       <c r="C18">
-        <v>10.36650890388319</v>
+        <v>7.030147937063358</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>15.65968643105336</v>
+        <v>11.20939157378107</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>19.95656407809808</v>
       </c>
       <c r="G18">
-        <v>2.09348224672033</v>
+        <v>3.700757609195337</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.91070766744279</v>
+        <v>14.09043085529212</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.34893814683564</v>
+        <v>16.4377777415586</v>
       </c>
       <c r="N18">
-        <v>16.61281737390702</v>
+        <v>22.83987900716037</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.23162530088871</v>
+        <v>14.84869085629589</v>
       </c>
       <c r="C19">
-        <v>10.31651658264806</v>
+        <v>7.014807718404757</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>15.58422105045226</v>
+        <v>11.18873314609371</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>19.87204792380562</v>
       </c>
       <c r="G19">
-        <v>2.094310827017096</v>
+        <v>3.701008372660445</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.83529681330032</v>
+        <v>14.07614491478166</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.26276079147464</v>
+        <v>16.42294309795017</v>
       </c>
       <c r="N19">
-        <v>16.6153658693978</v>
+        <v>22.84087298677789</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.61792565148608</v>
+        <v>14.94319676487803</v>
       </c>
       <c r="C20">
-        <v>10.54043932141759</v>
+        <v>7.083716806317613</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15.92223783785364</v>
+        <v>11.28163032019233</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>20.24955283636157</v>
       </c>
       <c r="G20">
-        <v>2.090585551393446</v>
+        <v>3.699886436966943</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>16.17293899202096</v>
+        <v>14.14056996029469</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.64866470699351</v>
+        <v>16.4898920120356</v>
       </c>
       <c r="N20">
-        <v>16.60445115275388</v>
+        <v>22.83651699952553</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.88324041485697</v>
+        <v>15.26114122634387</v>
       </c>
       <c r="C21">
-        <v>11.27502021750762</v>
+        <v>7.312841858361861</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>17.0310752426321</v>
+        <v>11.59224146302405</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>2.078113335020793</v>
+        <v>3.696230743523937</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>17.27812003839113</v>
+        <v>14.35923490425736</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.91287523639619</v>
+        <v>16.71799758571498</v>
       </c>
       <c r="N21">
-        <v>16.57798761390498</v>
+        <v>22.82393303782687</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.68688584801382</v>
+        <v>15.46887672036499</v>
       </c>
       <c r="C22">
-        <v>11.74261641718683</v>
+        <v>7.460525997714193</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>17.73691572101135</v>
+        <v>11.79374358578304</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>2.069974417150313</v>
+        <v>3.693925935944658</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.97960482171385</v>
+        <v>14.50356252760002</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.71619885433048</v>
+        <v>16.86921527298117</v>
       </c>
       <c r="N22">
-        <v>16.56897049408435</v>
+        <v>22.81724192087796</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.26003008120209</v>
+        <v>15.35803323767747</v>
       </c>
       <c r="C23">
-        <v>11.49414374728485</v>
+        <v>7.381909723989836</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>17.36184076645521</v>
+        <v>11.68635868804584</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154475857</v>
       </c>
       <c r="G23">
-        <v>2.074318580027708</v>
+        <v>3.695148362031828</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>17.60704682349294</v>
+        <v>14.42641697403147</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.28946358531954</v>
+        <v>16.78832630082338</v>
       </c>
       <c r="N23">
-        <v>16.57298005266727</v>
+        <v>22.82067254059109</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.59683686463121</v>
+        <v>14.93800442082042</v>
       </c>
       <c r="C24">
-        <v>10.528211193016</v>
+        <v>7.079940950339335</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>15.90377938778466</v>
+        <v>11.27653355147487</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>2.090789910330446</v>
+        <v>3.699947618806893</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>16.15450971004317</v>
+        <v>14.13702316963522</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.62759742817877</v>
+        <v>16.48620302158586</v>
       </c>
       <c r="N24">
-        <v>16.60501374015049</v>
+        <v>22.83674850215701</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.70789984279089</v>
+        <v>14.48710864972838</v>
       </c>
       <c r="C25">
-        <v>9.42800000170136</v>
+        <v>6.747194165981433</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>14.24284396270118</v>
+        <v>10.83050893777495</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295691</v>
       </c>
       <c r="G25">
-        <v>2.108737717279068</v>
+        <v>3.705489750226945</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.49219725165062</v>
+        <v>13.8324164424631</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.72904486744905</v>
+        <v>16.17092475897439</v>
       </c>
       <c r="N25">
-        <v>16.67094213668738</v>
+        <v>22.86064439224615</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_176/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_176/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.15967521690695</v>
+        <v>15.40419512247235</v>
       </c>
       <c r="C2">
-        <v>6.498337351986359</v>
+        <v>8.56318849026556</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.50155289186741</v>
+        <v>12.93683577308915</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.709888699607193</v>
+        <v>2.122232779063856</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.61617721057028</v>
+        <v>13.31982366736455</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.94939587996503</v>
+        <v>15.23238914260199</v>
       </c>
       <c r="N2">
-        <v>22.88384567116072</v>
+        <v>16.74246503187922</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.94201437529212</v>
+        <v>14.48426427426927</v>
       </c>
       <c r="C3">
-        <v>6.328519332001004</v>
+        <v>7.940994555206912</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.27982848283818</v>
+        <v>11.99676963133914</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.713070515920299</v>
+        <v>2.131606787596905</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.4754110540914</v>
+        <v>12.59130893643872</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.80660041038779</v>
+        <v>14.34478799249866</v>
       </c>
       <c r="N3">
-        <v>22.90305095219939</v>
+        <v>16.80355211565257</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.81093556697714</v>
+        <v>13.90225872691214</v>
       </c>
       <c r="C4">
-        <v>6.22412746346804</v>
+        <v>7.540592917402666</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.14483235605414</v>
+        <v>11.39151403333095</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.715123786374591</v>
+        <v>2.137490712348741</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.39207869316383</v>
+        <v>12.13394020581673</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.72277006638242</v>
+        <v>13.83885921675231</v>
       </c>
       <c r="N4">
-        <v>22.91655504757985</v>
+        <v>16.84678013315535</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.75823630635322</v>
+        <v>13.66094824640895</v>
       </c>
       <c r="C5">
-        <v>6.181627689541162</v>
+        <v>7.372731868027548</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.09019219513919</v>
+        <v>11.16787797893039</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.715985655712127</v>
+        <v>2.139922827963108</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.35893549620641</v>
+        <v>11.94520748609562</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.68960882951189</v>
+        <v>13.63053443617684</v>
       </c>
       <c r="N5">
-        <v>22.92248780305093</v>
+        <v>16.86576577112963</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.74953096064153</v>
+        <v>13.62063517689467</v>
       </c>
       <c r="C6">
-        <v>6.174575239554905</v>
+        <v>7.34457313156178</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.08114417401878</v>
+        <v>11.13149019740163</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.716130289915296</v>
+        <v>2.140328813749683</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.35348236678546</v>
+        <v>11.9137326407406</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.68416377144242</v>
+        <v>13.59581894086175</v>
       </c>
       <c r="N6">
-        <v>22.92349886435011</v>
+        <v>16.86899915721018</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.81022185243385</v>
+        <v>13.89902080966309</v>
       </c>
       <c r="C7">
-        <v>6.223554035067251</v>
+        <v>7.53834818368562</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.1440938421663</v>
+        <v>11.38812005863434</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.715135307911995</v>
+        <v>2.137523370861334</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.39162836430854</v>
+        <v>12.13140414206665</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.72231875008258</v>
+        <v>13.8360580995468</v>
       </c>
       <c r="N7">
-        <v>22.91663331995008</v>
+        <v>16.84703072017796</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.08413628387144</v>
+        <v>15.09065468634696</v>
       </c>
       <c r="C8">
-        <v>6.439851777999389</v>
+        <v>8.352421905601883</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.42491526240716</v>
+        <v>12.61844322946999</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.710965170027301</v>
+        <v>2.125439647104442</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.56702018831278</v>
+        <v>13.07081194004716</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.8993820794473</v>
+        <v>14.87671761502247</v>
       </c>
       <c r="N8">
-        <v>22.8901118753756</v>
+        <v>16.76229762274954</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.63846930566908</v>
+        <v>17.35147101154026</v>
       </c>
       <c r="C9">
-        <v>6.860034793033652</v>
+        <v>9.806825910939249</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.98103781686464</v>
+        <v>14.81478626987384</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>3.703573701049371</v>
+        <v>2.102656155483649</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.93387793436265</v>
+        <v>15.06548562287702</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.27557697709206</v>
+        <v>17.38343992195271</v>
       </c>
       <c r="N9">
-        <v>22.85172196024397</v>
+        <v>16.64491627927811</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.05196208423076</v>
+        <v>19.05631013284366</v>
       </c>
       <c r="C10">
-        <v>7.162549703468432</v>
+        <v>10.79473790947551</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.38820845466112</v>
+        <v>16.30609969113883</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>3.698616423061007</v>
+        <v>2.086311439666669</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.21505023127812</v>
+        <v>16.55596262537647</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.56744230011838</v>
+        <v>19.08661561705914</v>
       </c>
       <c r="N10">
-        <v>22.83186779692783</v>
+        <v>16.59364236091201</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.2405347447559</v>
+        <v>19.8026300919708</v>
       </c>
       <c r="C11">
-        <v>7.298109584011277</v>
+        <v>11.22816493567689</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.57219414604334</v>
+        <v>16.96034800763633</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>3.696462698651155</v>
+        <v>2.078920347458412</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.34497841163626</v>
+        <v>17.20774039594109</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.70308744717518</v>
+        <v>19.83231790454574</v>
       </c>
       <c r="N11">
-        <v>22.82465918318768</v>
+        <v>16.57923445483961</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.31193838845564</v>
+        <v>20.08122792154142</v>
       </c>
       <c r="C12">
-        <v>7.349093141410846</v>
+        <v>11.39013729761845</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11.64161350742968</v>
+        <v>17.20484315273652</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>3.695661616846899</v>
+        <v>2.076123996708275</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.39442605822699</v>
+        <v>17.4509659816323</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.75482350799104</v>
+        <v>20.11074692981488</v>
       </c>
       <c r="N12">
-        <v>22.82219242034726</v>
+        <v>16.57518683837586</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.29656167964724</v>
+        <v>20.02140234367769</v>
       </c>
       <c r="C13">
-        <v>7.338129306770417</v>
+        <v>11.3553471629621</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11.62667514648547</v>
+        <v>17.15232772829405</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.695833501259355</v>
+        <v>2.07672619648074</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.38376635239728</v>
+        <v>17.39873941913659</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.74366544815967</v>
+        <v>20.05095410551851</v>
       </c>
       <c r="N13">
-        <v>22.82271197281861</v>
+        <v>16.57599376340836</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.24640966858007</v>
+        <v>19.8256298651849</v>
       </c>
       <c r="C14">
-        <v>7.302311342894084</v>
+        <v>11.24153286315482</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>11.57791077796253</v>
+        <v>16.98052664878689</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>3.696396503341591</v>
+        <v>2.078690263794998</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.34904180765765</v>
+        <v>17.22782149250298</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.70733663333365</v>
+        <v>19.85530223138855</v>
       </c>
       <c r="N14">
-        <v>22.82445096595595</v>
+        <v>16.57887245523139</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.2156873787866</v>
+        <v>19.7051963201011</v>
       </c>
       <c r="C15">
-        <v>7.28032468289551</v>
+        <v>11.17154187219591</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.54800625133329</v>
+        <v>16.87487663450758</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>3.69674324234542</v>
+        <v>2.07989351407011</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.32780283883329</v>
+        <v>17.12266786226755</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.68513110785387</v>
+        <v>19.73495235444418</v>
       </c>
       <c r="N15">
-        <v>22.82555042146799</v>
+        <v>16.5808231362133</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.03964166375193</v>
+        <v>19.00696355972981</v>
       </c>
       <c r="C16">
-        <v>7.153644426833304</v>
+        <v>10.7661025468377</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.37615321944436</v>
+        <v>16.2628751030809</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028804</v>
       </c>
       <c r="G16">
-        <v>3.698759206108328</v>
+        <v>2.086795034872846</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.20659603300862</v>
+        <v>16.51285467906335</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.55863173135874</v>
+        <v>19.03731609675522</v>
       </c>
       <c r="N16">
-        <v>22.83237565338685</v>
+        <v>16.59477383716917</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.93171197342043</v>
+        <v>18.57125951700517</v>
       </c>
       <c r="C17">
-        <v>7.075363546695083</v>
+        <v>10.51338102125955</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11.27035582579481</v>
+        <v>15.88139310632222</v>
       </c>
       <c r="F17">
-        <v>20.20408069617459</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>3.700021833131864</v>
+        <v>2.091037611599859</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.13272601809513</v>
+        <v>16.13215744436959</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.48173408526431</v>
+        <v>18.60204621205795</v>
       </c>
       <c r="N17">
-        <v>22.83703025051509</v>
+        <v>16.60570126356031</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.86968238892244</v>
+        <v>18.3178911885034</v>
       </c>
       <c r="C18">
-        <v>7.030147937063358</v>
+        <v>10.36650890388331</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.20939157378107</v>
+        <v>15.65968643105332</v>
       </c>
       <c r="F18">
-        <v>19.95656407809808</v>
+        <v>36.31710943239623</v>
       </c>
       <c r="G18">
-        <v>3.700757609195337</v>
+        <v>2.09348224672033</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.09043085529212</v>
+        <v>15.9107076674428</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.4377777415586</v>
+        <v>18.34893814683562</v>
       </c>
       <c r="N18">
-        <v>22.83987900716037</v>
+        <v>16.61281737390702</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.84869085629589</v>
+        <v>18.23162530088866</v>
       </c>
       <c r="C19">
-        <v>7.014807718404757</v>
+        <v>10.31651658264783</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.18873314609371</v>
+        <v>15.58422105045232</v>
       </c>
       <c r="F19">
-        <v>19.87204792380562</v>
+        <v>36.15172494150058</v>
       </c>
       <c r="G19">
-        <v>3.701008372660445</v>
+        <v>2.094310827017098</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.07614491478166</v>
+        <v>15.83529681330024</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.42294309795017</v>
+        <v>18.2627607914746</v>
       </c>
       <c r="N19">
-        <v>22.84087298677789</v>
+        <v>16.61536586939787</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.94319676487803</v>
+        <v>18.61792565148602</v>
       </c>
       <c r="C20">
-        <v>7.083716806317613</v>
+        <v>10.54043932141749</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.28163032019233</v>
+        <v>15.92223783785365</v>
       </c>
       <c r="F20">
-        <v>20.24955283636157</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>3.699886436966943</v>
+        <v>2.090585551393843</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.14056996029469</v>
+        <v>16.17293899202086</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.4898920120356</v>
+        <v>18.64866470699343</v>
       </c>
       <c r="N20">
-        <v>22.83651699952553</v>
+        <v>16.60445115275398</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.26114122634387</v>
+        <v>19.88324041485697</v>
       </c>
       <c r="C21">
-        <v>7.312841858361861</v>
+        <v>11.27502021750767</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.59224146302405</v>
+        <v>17.03107524263212</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>3.696230743523937</v>
+        <v>2.07811333502066</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.35923490425736</v>
+        <v>17.27812003839113</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.71799758571498</v>
+        <v>19.91287523639621</v>
       </c>
       <c r="N21">
-        <v>22.82393303782687</v>
+        <v>16.57798761390497</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.46887672036499</v>
+        <v>20.68688584801379</v>
       </c>
       <c r="C22">
-        <v>7.460525997714193</v>
+        <v>11.74261641718682</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>11.79374358578304</v>
+        <v>17.73691572101127</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>3.693925935944658</v>
+        <v>2.069974417150575</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.50356252760002</v>
+        <v>17.97960482171385</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.86921527298117</v>
+        <v>20.71619885433045</v>
       </c>
       <c r="N22">
-        <v>22.81724192087796</v>
+        <v>16.56897049408437</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.35803323767747</v>
+        <v>20.26003008120215</v>
       </c>
       <c r="C23">
-        <v>7.381909723989836</v>
+        <v>11.49414374728489</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.68635868804584</v>
+        <v>17.36184076645535</v>
       </c>
       <c r="F23">
-        <v>21.82633154475857</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>3.695148362031828</v>
+        <v>2.074318580027447</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.42641697403147</v>
+        <v>17.607046823493</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.78832630082338</v>
+        <v>20.28946358531965</v>
       </c>
       <c r="N23">
-        <v>22.82067254059109</v>
+        <v>16.57298005266717</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.93800442082042</v>
+        <v>18.59683686463122</v>
       </c>
       <c r="C24">
-        <v>7.079940950339335</v>
+        <v>10.52821119301594</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>11.27653355147487</v>
+        <v>15.90377938778474</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>3.699947618806893</v>
+        <v>2.090789910330046</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.13702316963522</v>
+        <v>16.15450971004318</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.48620302158586</v>
+        <v>18.62759742817881</v>
       </c>
       <c r="N24">
-        <v>22.83674850215701</v>
+        <v>16.60501374015045</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.48710864972838</v>
+        <v>16.70789984279087</v>
       </c>
       <c r="C25">
-        <v>6.747194165981433</v>
+        <v>9.428000001701315</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.83050893777495</v>
+        <v>14.24284396270125</v>
       </c>
       <c r="F25">
-        <v>18.34778573295691</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>3.705489750226945</v>
+        <v>2.108737717279196</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.8324164424631</v>
+        <v>14.49219725165057</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.17092475897439</v>
+        <v>16.72904486744905</v>
       </c>
       <c r="N25">
-        <v>22.86064439224615</v>
+        <v>16.6709421366874</v>
       </c>
       <c r="O25">
         <v>0</v>
